--- a/Data/toplane/Toplane_2015.xlsx
+++ b/Data/toplane/Toplane_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,26 +376,6 @@
         <sz val="9"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>JKP GRADITELJ SRBOBRAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>JKSP EKOS ZITISTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>PETROVAC NA MLAVI</t>
     </r>
   </si>
@@ -525,11 +505,17 @@
       <t>Gas (Sm3/god)</t>
     </r>
   </si>
+  <si>
+    <t>SRBOBRAN</t>
+  </si>
+  <si>
+    <t>ŽITIŠTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1678,80 +1664,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.21875"/>
+    <col min="1" max="1" width="33.28515625"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="80.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="N1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1790,7 @@
         <v>288397825</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1835,7 @@
         <v>95000000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1884,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1925,7 @@
         <v>26021421</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1988,9 +1974,9 @@
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="17">
         <v>76203</v>
@@ -2037,7 +2023,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2082,9 +2068,9 @@
         <v>9036648</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="13">
         <v>57627</v>
@@ -2127,7 +2113,7 @@
         <v>1019510</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -2172,9 +2158,9 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="13">
         <v>80</v>
@@ -2219,7 +2205,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -2262,9 +2248,9 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="13">
         <v>55</v>
@@ -2309,7 +2295,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2356,9 +2342,9 @@
         <v>384001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="13">
         <v>425</v>
@@ -2397,9 +2383,9 @@
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13">
         <v>66</v>
@@ -2446,7 +2432,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2473,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
@@ -2532,7 +2518,7 @@
       </c>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -2577,7 +2563,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -2616,7 +2602,7 @@
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2643,7 @@
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2691,14 +2677,14 @@
         <v>8</v>
       </c>
       <c r="O22" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P22" s="49">
         <v>3681</v>
       </c>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -2745,7 +2731,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2772,7 @@
       <c r="P24" s="50"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2819,7 @@
       </c>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
@@ -2870,7 +2856,7 @@
         <v>3026000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
@@ -2915,9 +2901,9 @@
       </c>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="13">
         <v>39491</v>
@@ -2960,7 +2946,7 @@
       </c>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
@@ -3003,9 +2989,9 @@
       </c>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -3034,7 +3020,7 @@
       </c>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>22</v>
       </c>
@@ -3077,7 +3063,7 @@
       </c>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3110,7 @@
       </c>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3149,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
@@ -3206,9 +3192,9 @@
       </c>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="30">
         <v>25774</v>
@@ -3251,7 +3237,7 @@
         <v>1633155</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -3290,7 +3276,7 @@
         <v>3550951</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -3331,7 +3317,7 @@
       </c>
       <c r="Q37" s="50"/>
     </row>
-    <row r="38" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
@@ -3372,9 +3358,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="30">
         <v>10</v>
@@ -3419,7 +3405,7 @@
       </c>
       <c r="Q39" s="50"/>
     </row>
-    <row r="40" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>29</v>
       </c>
@@ -3464,9 +3450,9 @@
       </c>
       <c r="Q40" s="50"/>
     </row>
-    <row r="41" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -3485,9 +3471,9 @@
       <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
     </row>
-    <row r="42" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="30">
         <v>3142</v>
@@ -3530,7 +3516,7 @@
       </c>
       <c r="Q42" s="50"/>
     </row>
-    <row r="43" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>30</v>
       </c>
@@ -3571,9 +3557,9 @@
       </c>
       <c r="Q43" s="50"/>
     </row>
-    <row r="44" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="30">
         <v>7839</v>
@@ -3616,7 +3602,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>31</v>
       </c>
@@ -3661,9 +3647,9 @@
       </c>
       <c r="Q45" s="50"/>
     </row>
-    <row r="46" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" s="30">
         <v>28</v>
@@ -3710,7 +3696,7 @@
         <v>1056836</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
@@ -3751,9 +3737,9 @@
         <v>646022</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="30">
         <v>4</v>
@@ -3796,7 +3782,7 @@
       </c>
       <c r="Q48" s="50"/>
     </row>
-    <row r="49" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>33</v>
       </c>
@@ -3835,9 +3821,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -3856,9 +3842,9 @@
       <c r="P50" s="50"/>
       <c r="Q50" s="50"/>
     </row>
-    <row r="51" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" s="30">
         <v>2609</v>
@@ -3901,7 +3887,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>34</v>
       </c>
@@ -3950,9 +3936,9 @@
         <v>630751</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B53" s="30">
         <v>1025</v>
@@ -3995,9 +3981,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B54" s="30">
         <v>2953</v>
@@ -4040,9 +4026,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="30">
         <v>8152</v>
